--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -7192,12 +7192,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -7207,11 +7207,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,12 +7240,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -7255,11 +7255,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -19516,12 +19516,12 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -19531,11 +19531,11 @@
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F400" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G400" t="inlineStr">
         <is>
@@ -19544,12 +19544,12 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
@@ -19564,12 +19564,12 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -19579,11 +19579,11 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19592,12 +19592,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -22156,7 +22156,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22175,7 +22175,7 @@
         </is>
       </c>
       <c r="F455" t="n">
-        <v>1950</v>
+        <v>180</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22204,7 +22204,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22223,7 +22223,7 @@
         </is>
       </c>
       <c r="F456" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22252,7 +22252,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="F457" t="n">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22285,7 +22285,7 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22300,7 +22300,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22319,7 +22319,7 @@
         </is>
       </c>
       <c r="F458" t="n">
-        <v>438</v>
+        <v>2240</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22333,7 +22333,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22348,7 +22348,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22367,7 +22367,7 @@
         </is>
       </c>
       <c r="F459" t="n">
-        <v>2240</v>
+        <v>470</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22396,7 +22396,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22415,7 +22415,7 @@
         </is>
       </c>
       <c r="F460" t="n">
-        <v>470</v>
+        <v>1950</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22429,7 +22429,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -7748,7 +7748,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,11 +5239,11 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,11 +5287,11 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -7192,12 +7192,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -7207,11 +7207,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,12 +7240,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -7255,11 +7255,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -19516,12 +19516,12 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -19531,11 +19531,11 @@
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F400" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G400" t="inlineStr">
         <is>
@@ -19544,12 +19544,12 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
@@ -19564,12 +19564,12 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -19579,11 +19579,11 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19592,12 +19592,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -22156,7 +22156,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22175,7 +22175,7 @@
         </is>
       </c>
       <c r="F455" t="n">
-        <v>180</v>
+        <v>1950</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22204,7 +22204,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22223,7 +22223,7 @@
         </is>
       </c>
       <c r="F456" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22252,7 +22252,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="F457" t="n">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22285,7 +22285,7 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22300,7 +22300,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22319,7 +22319,7 @@
         </is>
       </c>
       <c r="F458" t="n">
-        <v>2240</v>
+        <v>438</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22333,7 +22333,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22348,7 +22348,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22367,7 +22367,7 @@
         </is>
       </c>
       <c r="F459" t="n">
-        <v>470</v>
+        <v>2240</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22396,7 +22396,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22415,7 +22415,7 @@
         </is>
       </c>
       <c r="F460" t="n">
-        <v>1950</v>
+        <v>470</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22429,7 +22429,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,11 +5239,11 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,11 +5287,11 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -7192,12 +7192,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -7207,11 +7207,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7220,12 +7220,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,12 +7240,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -7255,11 +7255,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -19516,12 +19516,12 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -19531,11 +19531,11 @@
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F400" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G400" t="inlineStr">
         <is>
@@ -19544,12 +19544,12 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
@@ -19564,12 +19564,12 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -19579,11 +19579,11 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19592,12 +19592,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -22156,7 +22156,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22175,7 +22175,7 @@
         </is>
       </c>
       <c r="F455" t="n">
-        <v>1950</v>
+        <v>180</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22204,7 +22204,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22223,7 +22223,7 @@
         </is>
       </c>
       <c r="F456" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22252,7 +22252,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="F457" t="n">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22285,7 +22285,7 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22300,7 +22300,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22319,7 +22319,7 @@
         </is>
       </c>
       <c r="F458" t="n">
-        <v>438</v>
+        <v>2240</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22333,7 +22333,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22348,7 +22348,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22367,7 +22367,7 @@
         </is>
       </c>
       <c r="F459" t="n">
-        <v>2240</v>
+        <v>470</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22396,7 +22396,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22415,7 +22415,7 @@
         </is>
       </c>
       <c r="F460" t="n">
-        <v>470</v>
+        <v>1950</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22429,7 +22429,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -2655,7 +2655,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>17/05/2019</t>
+          <t>18/05/2019</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -1604,7 +1604,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -7495,7 +7495,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F149" t="n">
@@ -10663,7 +10663,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -10807,7 +10807,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -11191,7 +11191,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F226" t="n">
@@ -16075,7 +16075,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F328" t="n">
@@ -16411,7 +16411,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F335" t="n">
@@ -17035,7 +17035,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F348" t="n">
@@ -19675,7 +19675,7 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F403" t="n">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -7240,12 +7240,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -7255,11 +7255,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,12 +7288,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -7303,11 +7303,11 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -19564,12 +19564,12 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -19579,11 +19579,11 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19592,12 +19592,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -19612,12 +19612,12 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -19627,11 +19627,11 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19640,12 +19640,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -22204,7 +22204,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22223,7 +22223,7 @@
         </is>
       </c>
       <c r="F456" t="n">
-        <v>180</v>
+        <v>1950</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22252,7 +22252,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="F457" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22285,7 +22285,7 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22300,7 +22300,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22319,7 +22319,7 @@
         </is>
       </c>
       <c r="F458" t="n">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22333,7 +22333,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22348,7 +22348,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22367,7 +22367,7 @@
         </is>
       </c>
       <c r="F459" t="n">
-        <v>2240</v>
+        <v>438</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22396,7 +22396,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22415,7 +22415,7 @@
         </is>
       </c>
       <c r="F460" t="n">
-        <v>470</v>
+        <v>2240</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22429,7 +22429,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22444,7 +22444,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22463,7 +22463,7 @@
         </is>
       </c>
       <c r="F461" t="n">
-        <v>1950</v>
+        <v>470</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22477,7 +22477,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -7240,12 +7240,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -7255,11 +7255,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,12 +7288,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -7303,11 +7303,11 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -19564,12 +19564,12 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -19579,11 +19579,11 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19592,12 +19592,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -19612,12 +19612,12 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -19627,11 +19627,11 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19640,12 +19640,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -22204,7 +22204,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22223,7 +22223,7 @@
         </is>
       </c>
       <c r="F456" t="n">
-        <v>1950</v>
+        <v>180</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22252,7 +22252,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="F457" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22285,7 +22285,7 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22300,7 +22300,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22319,7 +22319,7 @@
         </is>
       </c>
       <c r="F458" t="n">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22333,7 +22333,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22348,7 +22348,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22367,7 +22367,7 @@
         </is>
       </c>
       <c r="F459" t="n">
-        <v>438</v>
+        <v>2240</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22396,7 +22396,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22415,7 +22415,7 @@
         </is>
       </c>
       <c r="F460" t="n">
-        <v>2240</v>
+        <v>470</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22429,7 +22429,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22444,7 +22444,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22463,7 +22463,7 @@
         </is>
       </c>
       <c r="F461" t="n">
-        <v>470</v>
+        <v>1950</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22477,7 +22477,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>30/05/2022</t>
+          <t>06/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,11 +5287,11 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,11 +5335,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -7240,12 +7240,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -7255,11 +7255,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,12 +7288,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -7303,11 +7303,11 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -19564,12 +19564,12 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -19579,11 +19579,11 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19592,12 +19592,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -19612,12 +19612,12 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -19627,11 +19627,11 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19640,12 +19640,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -22204,7 +22204,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22223,7 +22223,7 @@
         </is>
       </c>
       <c r="F456" t="n">
-        <v>180</v>
+        <v>1950</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22252,7 +22252,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="F457" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22285,7 +22285,7 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22300,7 +22300,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22319,7 +22319,7 @@
         </is>
       </c>
       <c r="F458" t="n">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22333,7 +22333,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22348,7 +22348,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22367,7 +22367,7 @@
         </is>
       </c>
       <c r="F459" t="n">
-        <v>2240</v>
+        <v>438</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22396,7 +22396,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22415,7 +22415,7 @@
         </is>
       </c>
       <c r="F460" t="n">
-        <v>470</v>
+        <v>2240</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22429,7 +22429,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22444,7 +22444,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22463,7 +22463,7 @@
         </is>
       </c>
       <c r="F461" t="n">
-        <v>1950</v>
+        <v>470</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22477,7 +22477,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,11 +5287,11 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,11 +5335,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -7240,12 +7240,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -7255,11 +7255,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,12 +7288,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -7303,11 +7303,11 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -19564,12 +19564,12 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -19579,11 +19579,11 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19592,12 +19592,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -19612,12 +19612,12 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -19627,11 +19627,11 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19640,12 +19640,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -22204,7 +22204,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22223,7 +22223,7 @@
         </is>
       </c>
       <c r="F456" t="n">
-        <v>1950</v>
+        <v>180</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22252,7 +22252,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="F457" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22285,7 +22285,7 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22300,7 +22300,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22319,7 +22319,7 @@
         </is>
       </c>
       <c r="F458" t="n">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22333,7 +22333,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22348,7 +22348,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22367,7 +22367,7 @@
         </is>
       </c>
       <c r="F459" t="n">
-        <v>438</v>
+        <v>2240</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22396,7 +22396,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22415,7 +22415,7 @@
         </is>
       </c>
       <c r="F460" t="n">
-        <v>2240</v>
+        <v>470</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22429,7 +22429,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22444,7 +22444,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22463,7 +22463,7 @@
         </is>
       </c>
       <c r="F461" t="n">
-        <v>470</v>
+        <v>1950</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22477,7 +22477,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -7288,12 +7288,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -7303,11 +7303,11 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7316,12 +7316,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,12 +7336,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -19612,12 +19612,12 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -19627,11 +19627,11 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19640,12 +19640,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -19660,12 +19660,12 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -19675,11 +19675,11 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19688,12 +19688,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -22252,7 +22252,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="F457" t="n">
-        <v>180</v>
+        <v>1950</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22285,7 +22285,7 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22300,7 +22300,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22319,7 +22319,7 @@
         </is>
       </c>
       <c r="F458" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22333,7 +22333,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22348,7 +22348,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22367,7 +22367,7 @@
         </is>
       </c>
       <c r="F459" t="n">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22396,7 +22396,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22415,7 +22415,7 @@
         </is>
       </c>
       <c r="F460" t="n">
-        <v>2240</v>
+        <v>438</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22429,7 +22429,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22444,7 +22444,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22463,7 +22463,7 @@
         </is>
       </c>
       <c r="F461" t="n">
-        <v>470</v>
+        <v>2240</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22477,7 +22477,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22492,7 +22492,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22511,7 +22511,7 @@
         </is>
       </c>
       <c r="F462" t="n">
-        <v>1950</v>
+        <v>470</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -7336,12 +7336,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,12 +7384,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -7399,11 +7399,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,11 +10327,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -19660,12 +19660,12 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -19675,11 +19675,11 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19688,12 +19688,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -19708,12 +19708,12 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -19723,11 +19723,11 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19736,12 +19736,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -22300,7 +22300,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22319,7 +22319,7 @@
         </is>
       </c>
       <c r="F458" t="n">
-        <v>180</v>
+        <v>1950</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22333,7 +22333,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22348,7 +22348,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22367,7 +22367,7 @@
         </is>
       </c>
       <c r="F459" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22396,7 +22396,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22415,7 +22415,7 @@
         </is>
       </c>
       <c r="F460" t="n">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22429,7 +22429,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22444,7 +22444,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22463,7 +22463,7 @@
         </is>
       </c>
       <c r="F461" t="n">
-        <v>2240</v>
+        <v>438</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22477,7 +22477,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22492,7 +22492,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22511,7 +22511,7 @@
         </is>
       </c>
       <c r="F462" t="n">
-        <v>470</v>
+        <v>2240</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22540,7 +22540,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22559,7 +22559,7 @@
         </is>
       </c>
       <c r="F463" t="n">
-        <v>1950</v>
+        <v>470</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -7336,12 +7336,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,12 +7384,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -7399,11 +7399,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,11 +10327,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -19660,12 +19660,12 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -19675,11 +19675,11 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19688,12 +19688,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -19708,12 +19708,12 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -19723,11 +19723,11 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19736,12 +19736,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -22300,7 +22300,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22319,7 +22319,7 @@
         </is>
       </c>
       <c r="F458" t="n">
-        <v>1950</v>
+        <v>180</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22333,7 +22333,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22348,7 +22348,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22367,7 +22367,7 @@
         </is>
       </c>
       <c r="F459" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22396,7 +22396,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22415,7 +22415,7 @@
         </is>
       </c>
       <c r="F460" t="n">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22429,7 +22429,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22444,7 +22444,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22463,7 +22463,7 @@
         </is>
       </c>
       <c r="F461" t="n">
-        <v>438</v>
+        <v>2240</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22477,7 +22477,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22492,7 +22492,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22511,7 +22511,7 @@
         </is>
       </c>
       <c r="F462" t="n">
-        <v>2240</v>
+        <v>470</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22540,7 +22540,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22559,7 +22559,7 @@
         </is>
       </c>
       <c r="F463" t="n">
-        <v>470</v>
+        <v>1950</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/06/2022</t>
+          <t>18/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -7336,12 +7336,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,12 +7384,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -7399,11 +7399,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,11 +10327,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -19660,12 +19660,12 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -19675,11 +19675,11 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19688,12 +19688,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -19708,12 +19708,12 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -19723,11 +19723,11 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19736,12 +19736,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -22300,7 +22300,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22319,7 +22319,7 @@
         </is>
       </c>
       <c r="F458" t="n">
-        <v>180</v>
+        <v>1950</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22333,7 +22333,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22348,7 +22348,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22367,7 +22367,7 @@
         </is>
       </c>
       <c r="F459" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22396,7 +22396,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22415,7 +22415,7 @@
         </is>
       </c>
       <c r="F460" t="n">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22429,7 +22429,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22444,7 +22444,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22463,7 +22463,7 @@
         </is>
       </c>
       <c r="F461" t="n">
-        <v>2240</v>
+        <v>438</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22477,7 +22477,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22492,7 +22492,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22511,7 +22511,7 @@
         </is>
       </c>
       <c r="F462" t="n">
-        <v>470</v>
+        <v>2240</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22540,7 +22540,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22559,7 +22559,7 @@
         </is>
       </c>
       <c r="F463" t="n">
-        <v>1950</v>
+        <v>470</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/07/2022</t>
+          <t>22/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,11 +5431,11 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -7336,12 +7336,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,12 +7384,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -7399,11 +7399,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,11 +10327,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -19660,12 +19660,12 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -19675,11 +19675,11 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19688,12 +19688,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -19708,12 +19708,12 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -19723,11 +19723,11 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19736,12 +19736,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -22300,7 +22300,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22319,7 +22319,7 @@
         </is>
       </c>
       <c r="F458" t="n">
-        <v>180</v>
+        <v>1950</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22333,7 +22333,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22348,7 +22348,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22367,7 +22367,7 @@
         </is>
       </c>
       <c r="F459" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22396,7 +22396,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22415,7 +22415,7 @@
         </is>
       </c>
       <c r="F460" t="n">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22429,7 +22429,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22444,7 +22444,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22463,7 +22463,7 @@
         </is>
       </c>
       <c r="F461" t="n">
-        <v>2240</v>
+        <v>438</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22477,7 +22477,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22492,7 +22492,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22511,7 +22511,7 @@
         </is>
       </c>
       <c r="F462" t="n">
-        <v>470</v>
+        <v>2240</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22540,7 +22540,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22559,7 +22559,7 @@
         </is>
       </c>
       <c r="F463" t="n">
-        <v>1950</v>
+        <v>470</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,11 +5431,11 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -7336,12 +7336,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,12 +7384,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -7399,11 +7399,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,11 +10327,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -19660,12 +19660,12 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -19675,11 +19675,11 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19688,12 +19688,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -19708,12 +19708,12 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -19723,11 +19723,11 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19736,12 +19736,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -22300,7 +22300,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22319,7 +22319,7 @@
         </is>
       </c>
       <c r="F458" t="n">
-        <v>1950</v>
+        <v>180</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22333,7 +22333,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22348,7 +22348,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22367,7 +22367,7 @@
         </is>
       </c>
       <c r="F459" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22396,7 +22396,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22415,7 +22415,7 @@
         </is>
       </c>
       <c r="F460" t="n">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22429,7 +22429,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22444,7 +22444,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22463,7 +22463,7 @@
         </is>
       </c>
       <c r="F461" t="n">
-        <v>438</v>
+        <v>2240</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22477,7 +22477,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22492,7 +22492,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22511,7 +22511,7 @@
         </is>
       </c>
       <c r="F462" t="n">
-        <v>2240</v>
+        <v>470</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22540,7 +22540,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22559,7 +22559,7 @@
         </is>
       </c>
       <c r="F463" t="n">
-        <v>470</v>
+        <v>1950</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -5287,7 +5287,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Camarico Wind Farm spa</t>
+          <t>EÓLICA DE LA COSTA SpA</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,11 +5431,11 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -7336,12 +7336,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7364,12 +7364,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,12 +7384,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -7399,11 +7399,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,11 +10327,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -19660,12 +19660,12 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -19675,11 +19675,11 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19688,12 +19688,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -19708,12 +19708,12 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -19723,11 +19723,11 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19736,12 +19736,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -22300,7 +22300,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22319,7 +22319,7 @@
         </is>
       </c>
       <c r="F458" t="n">
-        <v>180</v>
+        <v>1950</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22333,7 +22333,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22348,7 +22348,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22367,7 +22367,7 @@
         </is>
       </c>
       <c r="F459" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22396,7 +22396,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22415,7 +22415,7 @@
         </is>
       </c>
       <c r="F460" t="n">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22429,7 +22429,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22444,7 +22444,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22463,7 +22463,7 @@
         </is>
       </c>
       <c r="F461" t="n">
-        <v>2240</v>
+        <v>438</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22477,7 +22477,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22492,7 +22492,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22511,7 +22511,7 @@
         </is>
       </c>
       <c r="F462" t="n">
-        <v>470</v>
+        <v>2240</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22540,7 +22540,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22559,7 +22559,7 @@
         </is>
       </c>
       <c r="F463" t="n">
-        <v>1950</v>
+        <v>470</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -7480,12 +7480,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,12 +7528,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -19804,12 +19804,12 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -19819,11 +19819,11 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19832,12 +19832,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -19852,12 +19852,12 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -19867,11 +19867,11 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19880,12 +19880,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -22444,7 +22444,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22463,7 +22463,7 @@
         </is>
       </c>
       <c r="F461" t="n">
-        <v>180</v>
+        <v>1950</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22477,7 +22477,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22492,7 +22492,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22511,7 +22511,7 @@
         </is>
       </c>
       <c r="F462" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22540,7 +22540,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22559,7 +22559,7 @@
         </is>
       </c>
       <c r="F463" t="n">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22588,7 +22588,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22607,7 +22607,7 @@
         </is>
       </c>
       <c r="F464" t="n">
-        <v>2240</v>
+        <v>438</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22621,7 +22621,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22636,7 +22636,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22655,7 +22655,7 @@
         </is>
       </c>
       <c r="F465" t="n">
-        <v>470</v>
+        <v>2240</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22684,7 +22684,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
         </is>
       </c>
       <c r="F466" t="n">
-        <v>1950</v>
+        <v>470</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -7480,12 +7480,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,12 +7528,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -19804,12 +19804,12 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -19819,11 +19819,11 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19832,12 +19832,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -19852,12 +19852,12 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -19867,11 +19867,11 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19880,12 +19880,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -22444,7 +22444,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22463,7 +22463,7 @@
         </is>
       </c>
       <c r="F461" t="n">
-        <v>1950</v>
+        <v>180</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22477,7 +22477,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22492,7 +22492,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22511,7 +22511,7 @@
         </is>
       </c>
       <c r="F462" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22540,7 +22540,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22559,7 +22559,7 @@
         </is>
       </c>
       <c r="F463" t="n">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22588,7 +22588,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22607,7 +22607,7 @@
         </is>
       </c>
       <c r="F464" t="n">
-        <v>438</v>
+        <v>2240</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22621,7 +22621,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22636,7 +22636,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22655,7 +22655,7 @@
         </is>
       </c>
       <c r="F465" t="n">
-        <v>2240</v>
+        <v>470</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22684,7 +22684,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
         </is>
       </c>
       <c r="F466" t="n">
-        <v>470</v>
+        <v>1950</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/07/2022</t>
+          <t>21/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Terrazas</t>
+          <t>Continuidad Operacional Proyecto Delta- ENAMI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Terrazas Solar SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>220000</v>
+        <v>33154</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/07/2022</t>
+          <t>21/07/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156507403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156444718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Proyecto Delta- ENAMI</t>
+          <t>Parque Fotovoltaico Las Terrazas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>Terrazas Solar SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>33154</v>
+        <v>220000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15/07/2022</t>
+          <t>18/07/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156444718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156507403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico La Chupalla</t>
+          <t>Parque Fotovoltaico Las Terrazas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>La Chupalla Solar SpA</t>
+          <t>Terrazas Solar SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>95000</v>
+        <v>220000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/07/2022</t>
+          <t>22/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156504368&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156507403&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Proyecto Delta- ENAMI</t>
+          <t>Parque Fotovoltaico La Chupalla</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,11 +487,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>La Chupalla Solar SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>33154</v>
+        <v>95000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156444718&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156504368&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Terrazas</t>
+          <t>Continuidad Operacional Proyecto Delta- ENAMI</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Terrazas Solar SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>220000</v>
+        <v>33154</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>18/07/2022</t>
+          <t>21/07/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156507403&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156444718&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -2943,7 +2943,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>18/05/2019</t>
+          <t>17/05/2019</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -7480,12 +7480,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,12 +7528,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -19804,12 +19804,12 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -19819,11 +19819,11 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19832,12 +19832,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -19852,12 +19852,12 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -19867,11 +19867,11 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19880,12 +19880,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -22444,7 +22444,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22463,7 +22463,7 @@
         </is>
       </c>
       <c r="F461" t="n">
-        <v>1950</v>
+        <v>180</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22477,7 +22477,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22492,7 +22492,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22511,7 +22511,7 @@
         </is>
       </c>
       <c r="F462" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22540,7 +22540,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22559,7 +22559,7 @@
         </is>
       </c>
       <c r="F463" t="n">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22588,7 +22588,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22607,7 +22607,7 @@
         </is>
       </c>
       <c r="F464" t="n">
-        <v>438</v>
+        <v>2240</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22621,7 +22621,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22636,7 +22636,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22655,7 +22655,7 @@
         </is>
       </c>
       <c r="F465" t="n">
-        <v>2240</v>
+        <v>470</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22684,7 +22684,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
         </is>
       </c>
       <c r="F466" t="n">
-        <v>470</v>
+        <v>1950</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -932,7 +932,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -14875,7 +14875,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F303" t="n">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -9991,7 +9991,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>ALMAZARA DEL PACIFICO S.A.</t>
+          <t>AGRÍCOLA DEL OLIVAR S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Camarico Solar Dos SpA</t>
+          <t>GPG Generación Distribuida SpA</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -7480,12 +7480,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,12 +7528,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -19804,12 +19804,12 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -19819,11 +19819,11 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19832,12 +19832,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -19852,12 +19852,12 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -19867,11 +19867,11 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19880,12 +19880,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -22444,7 +22444,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22463,7 +22463,7 @@
         </is>
       </c>
       <c r="F461" t="n">
-        <v>1950</v>
+        <v>180</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22477,7 +22477,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22492,7 +22492,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22511,7 +22511,7 @@
         </is>
       </c>
       <c r="F462" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22540,7 +22540,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22559,7 +22559,7 @@
         </is>
       </c>
       <c r="F463" t="n">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22588,7 +22588,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22607,7 +22607,7 @@
         </is>
       </c>
       <c r="F464" t="n">
-        <v>438</v>
+        <v>2240</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22621,7 +22621,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22636,7 +22636,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22655,7 +22655,7 @@
         </is>
       </c>
       <c r="F465" t="n">
-        <v>2240</v>
+        <v>470</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22684,7 +22684,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
         </is>
       </c>
       <c r="F466" t="n">
-        <v>470</v>
+        <v>1950</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -12199,7 +12199,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F247" t="n">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transporte terrestre de ácido sulfúrico y PLS entre la región de Arica y Parinacota y Valparaíso</t>
+          <t>Transporte terrestre de ácido sulfúrico entre la región de Arica y Parinacota y Atacama</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -7480,12 +7480,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -7495,11 +7495,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7508,12 +7508,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,12 +7528,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -19804,12 +19804,12 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -19819,11 +19819,11 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19832,12 +19832,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -19852,12 +19852,12 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -19867,11 +19867,11 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19880,12 +19880,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -22444,7 +22444,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22463,7 +22463,7 @@
         </is>
       </c>
       <c r="F461" t="n">
-        <v>180</v>
+        <v>1950</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22477,7 +22477,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22492,7 +22492,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22511,7 +22511,7 @@
         </is>
       </c>
       <c r="F462" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22540,7 +22540,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22559,7 +22559,7 @@
         </is>
       </c>
       <c r="F463" t="n">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22588,7 +22588,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22607,7 +22607,7 @@
         </is>
       </c>
       <c r="F464" t="n">
-        <v>2240</v>
+        <v>438</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22621,7 +22621,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22636,7 +22636,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22655,7 +22655,7 @@
         </is>
       </c>
       <c r="F465" t="n">
-        <v>470</v>
+        <v>2240</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22684,7 +22684,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
         </is>
       </c>
       <c r="F466" t="n">
-        <v>1950</v>
+        <v>470</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,11 +5575,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -7528,12 +7528,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,12 +7576,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -14576,26 +14576,22 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Parque Eólico Talinay</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr"/>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Eólica Talinay S. A.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14604,12 +14600,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14624,22 +14620,26 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Eólica Talinay S. A.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14648,12 +14648,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -19852,12 +19852,12 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -19867,11 +19867,11 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19880,12 +19880,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19900,12 +19900,12 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -19915,11 +19915,11 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19928,12 +19928,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -22492,7 +22492,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22511,7 +22511,7 @@
         </is>
       </c>
       <c r="F462" t="n">
-        <v>180</v>
+        <v>1950</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22540,7 +22540,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22559,7 +22559,7 @@
         </is>
       </c>
       <c r="F463" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22588,7 +22588,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22607,7 +22607,7 @@
         </is>
       </c>
       <c r="F464" t="n">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22621,7 +22621,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22636,7 +22636,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22655,7 +22655,7 @@
         </is>
       </c>
       <c r="F465" t="n">
-        <v>2240</v>
+        <v>438</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22684,7 +22684,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
         </is>
       </c>
       <c r="F466" t="n">
-        <v>470</v>
+        <v>2240</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22732,7 +22732,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22751,7 +22751,7 @@
         </is>
       </c>
       <c r="F467" t="n">
-        <v>1950</v>
+        <v>470</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,11 +5575,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -7528,12 +7528,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,12 +7576,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -14576,22 +14576,26 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay</t>
-        </is>
-      </c>
-      <c r="C297" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Eólica Talinay S. A.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14600,12 +14604,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14620,26 +14624,22 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Parque Eólico Talinay</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr"/>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Eólica Talinay S. A.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14648,12 +14648,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -19852,12 +19852,12 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -19867,11 +19867,11 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19880,12 +19880,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19900,12 +19900,12 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -19915,11 +19915,11 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19928,12 +19928,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -22492,7 +22492,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22511,7 +22511,7 @@
         </is>
       </c>
       <c r="F462" t="n">
-        <v>1950</v>
+        <v>180</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22540,7 +22540,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22559,7 +22559,7 @@
         </is>
       </c>
       <c r="F463" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22588,7 +22588,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22607,7 +22607,7 @@
         </is>
       </c>
       <c r="F464" t="n">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22621,7 +22621,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22636,7 +22636,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22655,7 +22655,7 @@
         </is>
       </c>
       <c r="F465" t="n">
-        <v>438</v>
+        <v>2240</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22684,7 +22684,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
         </is>
       </c>
       <c r="F466" t="n">
-        <v>2240</v>
+        <v>470</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22732,7 +22732,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22751,7 +22751,7 @@
         </is>
       </c>
       <c r="F467" t="n">
-        <v>470</v>
+        <v>1950</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/02/2023</t>
+          <t>21/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,11 +5575,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -7528,12 +7528,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,12 +7576,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -14576,22 +14576,26 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay</t>
-        </is>
-      </c>
-      <c r="C297" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Eólica Talinay S. A.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14600,12 +14604,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14620,26 +14624,22 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Parque Eólico Talinay</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr"/>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Eólica Talinay S. A.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14648,12 +14648,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -19852,12 +19852,12 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -19867,11 +19867,11 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19880,12 +19880,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19900,12 +19900,12 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -19915,11 +19915,11 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19928,12 +19928,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -22492,7 +22492,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22511,7 +22511,7 @@
         </is>
       </c>
       <c r="F462" t="n">
-        <v>1950</v>
+        <v>180</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22540,7 +22540,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22559,7 +22559,7 @@
         </is>
       </c>
       <c r="F463" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22588,7 +22588,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22607,7 +22607,7 @@
         </is>
       </c>
       <c r="F464" t="n">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22621,7 +22621,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22636,7 +22636,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22655,7 +22655,7 @@
         </is>
       </c>
       <c r="F465" t="n">
-        <v>438</v>
+        <v>2240</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22684,7 +22684,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
         </is>
       </c>
       <c r="F466" t="n">
-        <v>2240</v>
+        <v>470</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22732,7 +22732,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22751,7 +22751,7 @@
         </is>
       </c>
       <c r="F467" t="n">
-        <v>470</v>
+        <v>1950</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -7528,12 +7528,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,12 +7576,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -19852,12 +19852,12 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -19867,11 +19867,11 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19880,12 +19880,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19900,12 +19900,12 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -19915,11 +19915,11 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19928,12 +19928,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -22492,7 +22492,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22511,7 +22511,7 @@
         </is>
       </c>
       <c r="F462" t="n">
-        <v>180</v>
+        <v>1950</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22540,7 +22540,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22559,7 +22559,7 @@
         </is>
       </c>
       <c r="F463" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22588,7 +22588,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22607,7 +22607,7 @@
         </is>
       </c>
       <c r="F464" t="n">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22621,7 +22621,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22636,7 +22636,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22655,7 +22655,7 @@
         </is>
       </c>
       <c r="F465" t="n">
-        <v>2240</v>
+        <v>438</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22684,7 +22684,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
         </is>
       </c>
       <c r="F466" t="n">
-        <v>470</v>
+        <v>2240</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22732,7 +22732,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22751,7 +22751,7 @@
         </is>
       </c>
       <c r="F467" t="n">
-        <v>1950</v>
+        <v>470</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -7528,12 +7528,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,12 +7576,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -19852,12 +19852,12 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -19867,11 +19867,11 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19880,12 +19880,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19900,12 +19900,12 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -19915,11 +19915,11 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19928,12 +19928,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -22492,7 +22492,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22511,7 +22511,7 @@
         </is>
       </c>
       <c r="F462" t="n">
-        <v>1950</v>
+        <v>180</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22540,7 +22540,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22559,7 +22559,7 @@
         </is>
       </c>
       <c r="F463" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22588,7 +22588,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22607,7 +22607,7 @@
         </is>
       </c>
       <c r="F464" t="n">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22621,7 +22621,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22636,7 +22636,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22655,7 +22655,7 @@
         </is>
       </c>
       <c r="F465" t="n">
-        <v>438</v>
+        <v>2240</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22684,7 +22684,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
         </is>
       </c>
       <c r="F466" t="n">
-        <v>2240</v>
+        <v>470</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22732,7 +22732,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22751,7 +22751,7 @@
         </is>
       </c>
       <c r="F467" t="n">
-        <v>470</v>
+        <v>1950</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -2647,7 +2647,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Parque Solar Amparo del Sol SpA</t>
+          <t>SONNEDIX PARQUE SOLAR AMPARO DEL SOL SPA.</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>DON GOYO TRANSMISIÓN S.A.</t>
+          <t>SONNEDIX DON GOYO TRANSMISIÓN S.A</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -7528,12 +7528,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -7543,11 +7543,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -7556,12 +7556,12 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,12 +7576,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -8647,7 +8647,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Parque Eólico El Arrayán Spa</t>
+          <t>SONNEDIX PARQUE EÓLICO EL ARRAYÁN SPA.</t>
         </is>
       </c>
       <c r="F173" t="n">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -12339,7 +12339,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Parque Eólico El Arrayán Spa</t>
+          <t>SONNEDIX PARQUE EÓLICO EL ARRAYÁN SPA.</t>
         </is>
       </c>
       <c r="F250" t="n">
@@ -19852,12 +19852,12 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -19867,11 +19867,11 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19880,12 +19880,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19900,12 +19900,12 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -19915,11 +19915,11 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19928,12 +19928,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -22492,7 +22492,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22511,7 +22511,7 @@
         </is>
       </c>
       <c r="F462" t="n">
-        <v>1950</v>
+        <v>180</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22540,7 +22540,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22559,7 +22559,7 @@
         </is>
       </c>
       <c r="F463" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22588,7 +22588,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22607,7 +22607,7 @@
         </is>
       </c>
       <c r="F464" t="n">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22621,7 +22621,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22636,7 +22636,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22655,7 +22655,7 @@
         </is>
       </c>
       <c r="F465" t="n">
-        <v>438</v>
+        <v>2240</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22684,7 +22684,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
         </is>
       </c>
       <c r="F466" t="n">
-        <v>2240</v>
+        <v>470</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22732,7 +22732,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22751,7 +22751,7 @@
         </is>
       </c>
       <c r="F467" t="n">
-        <v>470</v>
+        <v>1950</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/03/2023</t>
+          <t>18/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -7576,12 +7576,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,12 +7624,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,11 +10567,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -14624,26 +14624,22 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Parque Eólico Talinay</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr"/>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Eólica Talinay S. A.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14652,12 +14648,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14672,22 +14668,26 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay</t>
-        </is>
-      </c>
-      <c r="C299" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Eólica Talinay S. A.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14696,12 +14696,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -19900,12 +19900,12 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -19915,11 +19915,11 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19928,12 +19928,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -19948,12 +19948,12 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -19963,11 +19963,11 @@
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19976,12 +19976,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -22540,7 +22540,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22559,7 +22559,7 @@
         </is>
       </c>
       <c r="F463" t="n">
-        <v>180</v>
+        <v>1950</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22588,7 +22588,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22607,7 +22607,7 @@
         </is>
       </c>
       <c r="F464" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22621,7 +22621,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22636,7 +22636,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22655,7 +22655,7 @@
         </is>
       </c>
       <c r="F465" t="n">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22684,7 +22684,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
         </is>
       </c>
       <c r="F466" t="n">
-        <v>2240</v>
+        <v>438</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22732,7 +22732,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22751,7 +22751,7 @@
         </is>
       </c>
       <c r="F467" t="n">
-        <v>470</v>
+        <v>2240</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22780,7 +22780,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22799,7 +22799,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>1950</v>
+        <v>470</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -7576,12 +7576,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,12 +7624,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,11 +10567,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -14624,22 +14624,26 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Eólica Talinay S. A.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14648,12 +14652,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14668,26 +14672,22 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Parque Eólico Talinay</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr"/>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Eólica Talinay S. A.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14696,12 +14696,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -19900,12 +19900,12 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -19915,11 +19915,11 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19928,12 +19928,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -19948,12 +19948,12 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -19963,11 +19963,11 @@
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19976,12 +19976,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -22540,7 +22540,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22559,7 +22559,7 @@
         </is>
       </c>
       <c r="F463" t="n">
-        <v>1950</v>
+        <v>180</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22588,7 +22588,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22607,7 +22607,7 @@
         </is>
       </c>
       <c r="F464" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22621,7 +22621,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22636,7 +22636,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22655,7 +22655,7 @@
         </is>
       </c>
       <c r="F465" t="n">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22684,7 +22684,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
         </is>
       </c>
       <c r="F466" t="n">
-        <v>438</v>
+        <v>2240</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22732,7 +22732,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22751,7 +22751,7 @@
         </is>
       </c>
       <c r="F467" t="n">
-        <v>2240</v>
+        <v>470</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22780,7 +22780,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22799,7 +22799,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>470</v>
+        <v>1950</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -7576,12 +7576,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,12 +7624,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,11 +10567,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -14624,26 +14624,22 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Parque Eólico Talinay</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr"/>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Eólica Talinay S. A.</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14652,12 +14648,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14672,22 +14668,26 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay</t>
-        </is>
-      </c>
-      <c r="C299" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Eólica Talinay S. A.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14696,12 +14696,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -19900,12 +19900,12 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -19915,11 +19915,11 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19928,12 +19928,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -19948,12 +19948,12 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -19963,11 +19963,11 @@
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19976,12 +19976,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -22540,7 +22540,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22559,7 +22559,7 @@
         </is>
       </c>
       <c r="F463" t="n">
-        <v>180</v>
+        <v>1950</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22588,7 +22588,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22607,7 +22607,7 @@
         </is>
       </c>
       <c r="F464" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22621,7 +22621,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22636,7 +22636,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22655,7 +22655,7 @@
         </is>
       </c>
       <c r="F465" t="n">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22684,7 +22684,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
         </is>
       </c>
       <c r="F466" t="n">
-        <v>2240</v>
+        <v>438</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22732,7 +22732,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22751,7 +22751,7 @@
         </is>
       </c>
       <c r="F467" t="n">
-        <v>470</v>
+        <v>2240</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22780,7 +22780,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22799,7 +22799,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>1950</v>
+        <v>470</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -7576,12 +7576,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -7591,11 +7591,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7604,12 +7604,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,12 +7624,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -7639,11 +7639,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,11 +10567,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -14624,22 +14624,26 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Eólica Talinay S. A.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14648,12 +14652,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14668,26 +14672,22 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Parque Eólico Talinay</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr"/>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Eólica Talinay S. A.</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14696,12 +14696,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -19900,12 +19900,12 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -19915,11 +19915,11 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19928,12 +19928,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -19948,12 +19948,12 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -19963,11 +19963,11 @@
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19976,12 +19976,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -22540,7 +22540,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22559,7 +22559,7 @@
         </is>
       </c>
       <c r="F463" t="n">
-        <v>1950</v>
+        <v>180</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22588,7 +22588,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22607,7 +22607,7 @@
         </is>
       </c>
       <c r="F464" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22621,7 +22621,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22636,7 +22636,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22655,7 +22655,7 @@
         </is>
       </c>
       <c r="F465" t="n">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22684,7 +22684,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
         </is>
       </c>
       <c r="F466" t="n">
-        <v>438</v>
+        <v>2240</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22732,7 +22732,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22751,7 +22751,7 @@
         </is>
       </c>
       <c r="F467" t="n">
-        <v>2240</v>
+        <v>470</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22780,7 +22780,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22799,7 +22799,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>470</v>
+        <v>1950</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22843,7 +22843,7 @@
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>Concesiones del Elqui S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F469" t="n">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/04/2023</t>
+          <t>24/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -3039,7 +3039,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>17/05/2019</t>
+          <t>18/05/2019</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -7672,12 +7672,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,12 +7720,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,11 +10615,11 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -14720,26 +14720,22 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Parque Eólico Talinay</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr"/>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Eólica Talinay S. A.</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14748,12 +14744,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14768,22 +14764,26 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Eólica Talinay S. A.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14792,12 +14792,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -19996,12 +19996,12 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -20011,11 +20011,11 @@
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20024,12 +20024,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20044,12 +20044,12 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -20059,11 +20059,11 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20072,12 +20072,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -22636,7 +22636,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22655,7 +22655,7 @@
         </is>
       </c>
       <c r="F465" t="n">
-        <v>180</v>
+        <v>1950</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22684,7 +22684,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
         </is>
       </c>
       <c r="F466" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22732,7 +22732,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22751,7 +22751,7 @@
         </is>
       </c>
       <c r="F467" t="n">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22780,7 +22780,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22799,7 +22799,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>2240</v>
+        <v>438</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22828,7 +22828,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22847,7 +22847,7 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>470</v>
+        <v>2240</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22876,7 +22876,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22895,7 +22895,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>1950</v>
+        <v>470</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22909,7 +22909,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -7672,12 +7672,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,12 +7720,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,11 +10615,11 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -14720,22 +14720,26 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay</t>
-        </is>
-      </c>
-      <c r="C300" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Eólica Talinay S. A.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14744,12 +14748,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14764,26 +14768,22 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Parque Eólico Talinay</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr"/>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Eólica Talinay S. A.</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14792,12 +14792,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -19996,12 +19996,12 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -20011,11 +20011,11 @@
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20024,12 +20024,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20044,12 +20044,12 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -20059,11 +20059,11 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20072,12 +20072,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -22636,7 +22636,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22655,7 +22655,7 @@
         </is>
       </c>
       <c r="F465" t="n">
-        <v>1950</v>
+        <v>180</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22684,7 +22684,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
         </is>
       </c>
       <c r="F466" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22732,7 +22732,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22751,7 +22751,7 @@
         </is>
       </c>
       <c r="F467" t="n">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22780,7 +22780,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22799,7 +22799,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>438</v>
+        <v>2240</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22828,7 +22828,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22847,7 +22847,7 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>2240</v>
+        <v>470</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22876,7 +22876,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22895,7 +22895,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>470</v>
+        <v>1950</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22909,7 +22909,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/04/2023</t>
+          <t>24/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -7672,12 +7672,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,12 +7720,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,11 +10615,11 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -14720,26 +14720,22 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Parque Eólico Talinay</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr"/>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Eólica Talinay S. A.</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14748,12 +14744,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14768,22 +14764,26 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Eólica Talinay S. A.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14792,12 +14792,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -19996,12 +19996,12 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -20011,11 +20011,11 @@
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20024,12 +20024,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20044,12 +20044,12 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -20059,11 +20059,11 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20072,12 +20072,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -22636,7 +22636,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22655,7 +22655,7 @@
         </is>
       </c>
       <c r="F465" t="n">
-        <v>180</v>
+        <v>1950</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22684,7 +22684,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
         </is>
       </c>
       <c r="F466" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22732,7 +22732,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22751,7 +22751,7 @@
         </is>
       </c>
       <c r="F467" t="n">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22780,7 +22780,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22799,7 +22799,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>2240</v>
+        <v>438</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22828,7 +22828,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22847,7 +22847,7 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>470</v>
+        <v>2240</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22876,7 +22876,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22895,7 +22895,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>1950</v>
+        <v>470</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22909,7 +22909,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -7672,12 +7672,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -7687,11 +7687,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,12 +7720,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10615,11 +10615,11 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -14720,22 +14720,26 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay</t>
-        </is>
-      </c>
-      <c r="C300" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Eólica Talinay S. A.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14744,12 +14748,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14764,26 +14768,22 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Parque Eólico Talinay</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr"/>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Eólica Talinay S. A.</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14792,12 +14792,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -19996,12 +19996,12 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -20011,11 +20011,11 @@
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20024,12 +20024,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20044,12 +20044,12 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -20059,11 +20059,11 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20072,12 +20072,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -22636,7 +22636,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22655,7 +22655,7 @@
         </is>
       </c>
       <c r="F465" t="n">
-        <v>1950</v>
+        <v>180</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22684,7 +22684,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
         </is>
       </c>
       <c r="F466" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22732,7 +22732,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22751,7 +22751,7 @@
         </is>
       </c>
       <c r="F467" t="n">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22780,7 +22780,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22799,7 +22799,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>438</v>
+        <v>2240</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22828,7 +22828,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22847,7 +22847,7 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>2240</v>
+        <v>470</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22876,7 +22876,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22895,7 +22895,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>470</v>
+        <v>1950</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22909,7 +22909,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -7720,12 +7720,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,12 +7768,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -14768,22 +14768,26 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Eólica Talinay S. A.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14792,12 +14796,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14812,26 +14816,22 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Parque Eólico Talinay</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr"/>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Eólica Talinay S. A.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14840,12 +14840,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -20044,12 +20044,12 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -20059,11 +20059,11 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20072,12 +20072,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20092,12 +20092,12 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -20107,11 +20107,11 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20120,12 +20120,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -22684,7 +22684,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
         </is>
       </c>
       <c r="F466" t="n">
-        <v>1950</v>
+        <v>180</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22732,7 +22732,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22751,7 +22751,7 @@
         </is>
       </c>
       <c r="F467" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22780,7 +22780,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22799,7 +22799,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22828,7 +22828,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22847,7 +22847,7 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>438</v>
+        <v>2240</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22876,7 +22876,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22895,7 +22895,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>2240</v>
+        <v>470</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22909,7 +22909,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22924,7 +22924,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22943,7 +22943,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>470</v>
+        <v>1950</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -7720,12 +7720,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,12 +7768,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -14768,26 +14768,22 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Parque Eólico Talinay</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr"/>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Eólica Talinay S. A.</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14796,12 +14792,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14816,22 +14812,26 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay</t>
-        </is>
-      </c>
-      <c r="C302" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Eólica Talinay S. A.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14840,12 +14840,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -20044,12 +20044,12 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -20059,11 +20059,11 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20072,12 +20072,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20092,12 +20092,12 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -20107,11 +20107,11 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20120,12 +20120,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -22684,7 +22684,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
         </is>
       </c>
       <c r="F466" t="n">
-        <v>180</v>
+        <v>1950</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22732,7 +22732,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22751,7 +22751,7 @@
         </is>
       </c>
       <c r="F467" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22780,7 +22780,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22799,7 +22799,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22828,7 +22828,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22847,7 +22847,7 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>2240</v>
+        <v>438</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22876,7 +22876,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22895,7 +22895,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>470</v>
+        <v>2240</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22909,7 +22909,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22924,7 +22924,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22943,7 +22943,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>1950</v>
+        <v>470</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -3183,7 +3183,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>18/05/2019</t>
+          <t>17/05/2019</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10/05/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>24/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -7720,12 +7720,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,12 +7768,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -14768,26 +14768,22 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Parque Eólico Talinay</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr"/>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Eólica Talinay S. A.</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14796,12 +14792,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14816,22 +14812,26 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay</t>
-        </is>
-      </c>
-      <c r="C302" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Eólica Talinay S. A.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14840,12 +14840,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -20044,12 +20044,12 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -20059,11 +20059,11 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20072,12 +20072,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20092,12 +20092,12 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -20107,11 +20107,11 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20120,12 +20120,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -22684,7 +22684,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
         </is>
       </c>
       <c r="F466" t="n">
-        <v>180</v>
+        <v>1950</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22732,7 +22732,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22751,7 +22751,7 @@
         </is>
       </c>
       <c r="F467" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22780,7 +22780,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22799,7 +22799,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22828,7 +22828,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22847,7 +22847,7 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>2240</v>
+        <v>438</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22876,7 +22876,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22895,7 +22895,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>470</v>
+        <v>2240</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22909,7 +22909,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22924,7 +22924,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22943,7 +22943,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>1950</v>
+        <v>470</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -7720,12 +7720,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,12 +7768,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -14768,22 +14768,26 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Eólica Talinay S. A.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14792,12 +14796,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14812,26 +14816,22 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Parque Eólico Talinay</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr"/>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Eólica Talinay S. A.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14840,12 +14840,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -20044,12 +20044,12 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -20059,11 +20059,11 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20072,12 +20072,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20092,12 +20092,12 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -20107,11 +20107,11 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20120,12 +20120,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -22684,7 +22684,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
         </is>
       </c>
       <c r="F466" t="n">
-        <v>1950</v>
+        <v>180</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22732,7 +22732,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22751,7 +22751,7 @@
         </is>
       </c>
       <c r="F467" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22780,7 +22780,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22799,7 +22799,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22828,7 +22828,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22847,7 +22847,7 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>438</v>
+        <v>2240</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22876,7 +22876,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22895,7 +22895,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>2240</v>
+        <v>470</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22909,7 +22909,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22924,7 +22924,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22943,7 +22943,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>470</v>
+        <v>1950</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,11 +5767,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,11 +5815,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -7720,12 +7720,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,12 +7768,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10663,11 +10663,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -14768,26 +14768,22 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Parque Eólico Talinay</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr"/>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Eólica Talinay S. A.</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14796,12 +14792,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14816,22 +14812,26 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay</t>
-        </is>
-      </c>
-      <c r="C302" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Eólica Talinay S. A.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14840,12 +14840,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -20044,12 +20044,12 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -20059,11 +20059,11 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20072,12 +20072,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20092,12 +20092,12 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -20107,11 +20107,11 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20120,12 +20120,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -22684,7 +22684,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22703,7 +22703,7 @@
         </is>
       </c>
       <c r="F466" t="n">
-        <v>180</v>
+        <v>1950</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22717,7 +22717,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22732,7 +22732,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22751,7 +22751,7 @@
         </is>
       </c>
       <c r="F467" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22780,7 +22780,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22799,7 +22799,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22828,7 +22828,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22847,7 +22847,7 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>2240</v>
+        <v>438</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22876,7 +22876,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22895,7 +22895,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>470</v>
+        <v>2240</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22909,7 +22909,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22924,7 +22924,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22943,7 +22943,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>1950</v>
+        <v>470</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -7768,12 +7768,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,12 +7816,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -14816,22 +14816,26 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay</t>
-        </is>
-      </c>
-      <c r="C302" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Eólica Talinay S. A.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14840,12 +14844,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14860,26 +14864,22 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Parque Eólico Talinay</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr"/>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Eólica Talinay S. A.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14888,12 +14888,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -20092,12 +20092,12 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -20107,11 +20107,11 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20120,12 +20120,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20140,12 +20140,12 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -20155,11 +20155,11 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20168,12 +20168,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -22732,7 +22732,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22751,7 +22751,7 @@
         </is>
       </c>
       <c r="F467" t="n">
-        <v>1950</v>
+        <v>180</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22780,7 +22780,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22799,7 +22799,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22828,7 +22828,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22847,7 +22847,7 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22876,7 +22876,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22895,7 +22895,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>438</v>
+        <v>2240</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22909,7 +22909,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22924,7 +22924,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22943,7 +22943,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>2240</v>
+        <v>470</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22972,7 +22972,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22991,7 +22991,7 @@
         </is>
       </c>
       <c r="F472" t="n">
-        <v>470</v>
+        <v>1950</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -7768,12 +7768,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,12 +7816,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -14816,26 +14816,22 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Parque Eólico Talinay</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr"/>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Eólica Talinay S. A.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14844,12 +14840,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14864,22 +14860,26 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Eólica Talinay S. A.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14888,12 +14888,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -20092,12 +20092,12 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -20107,11 +20107,11 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20120,12 +20120,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20140,12 +20140,12 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -20155,11 +20155,11 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20168,12 +20168,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -22732,7 +22732,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22751,7 +22751,7 @@
         </is>
       </c>
       <c r="F467" t="n">
-        <v>180</v>
+        <v>1950</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22780,7 +22780,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22799,7 +22799,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22828,7 +22828,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22847,7 +22847,7 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22876,7 +22876,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22895,7 +22895,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>2240</v>
+        <v>438</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22909,7 +22909,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22924,7 +22924,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22943,7 +22943,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>470</v>
+        <v>2240</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22972,7 +22972,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22991,7 +22991,7 @@
         </is>
       </c>
       <c r="F472" t="n">
-        <v>1950</v>
+        <v>470</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2023</t>
+          <t>24/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -7768,12 +7768,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,12 +7816,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10711,11 +10711,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -14816,26 +14816,22 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Parque Eólico Talinay</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr"/>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Eólica Talinay S. A.</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14844,12 +14840,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14864,22 +14860,26 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Eólica Talinay S. A.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14888,12 +14888,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -20092,12 +20092,12 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -20107,11 +20107,11 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20120,12 +20120,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20140,12 +20140,12 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -20155,11 +20155,11 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20168,12 +20168,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -22732,7 +22732,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22751,7 +22751,7 @@
         </is>
       </c>
       <c r="F467" t="n">
-        <v>180</v>
+        <v>1950</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22780,7 +22780,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22799,7 +22799,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22828,7 +22828,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22847,7 +22847,7 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22876,7 +22876,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22895,7 +22895,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>2240</v>
+        <v>438</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22909,7 +22909,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22924,7 +22924,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22943,7 +22943,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>470</v>
+        <v>2240</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22972,7 +22972,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22991,7 +22991,7 @@
         </is>
       </c>
       <c r="F472" t="n">
-        <v>1950</v>
+        <v>470</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -5959,7 +5959,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>IMELSA S.A.</t>
+          <t>DOÑA ANTONIA SOLAR SPA</t>
         </is>
       </c>
       <c r="F117" t="n">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -7816,12 +7816,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,12 +7864,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -14864,26 +14864,22 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Parque Eólico Talinay</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr"/>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Eólica Talinay S. A.</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14892,12 +14888,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14912,22 +14908,26 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Eólica Talinay S. A.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14936,12 +14936,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -20140,12 +20140,12 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -20155,11 +20155,11 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20168,12 +20168,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20188,12 +20188,12 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -20203,11 +20203,11 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20216,12 +20216,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -22780,7 +22780,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22799,7 +22799,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>180</v>
+        <v>1950</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22828,7 +22828,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22847,7 +22847,7 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22876,7 +22876,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22895,7 +22895,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22909,7 +22909,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22924,7 +22924,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22943,7 +22943,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>2240</v>
+        <v>438</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22972,7 +22972,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22991,7 +22991,7 @@
         </is>
       </c>
       <c r="F472" t="n">
-        <v>470</v>
+        <v>2240</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23020,7 +23020,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23039,7 +23039,7 @@
         </is>
       </c>
       <c r="F473" t="n">
-        <v>1950</v>
+        <v>470</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -7816,12 +7816,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,12 +7864,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -14864,22 +14864,26 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Eólica Talinay S. A.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14888,12 +14892,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14908,26 +14912,22 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Parque Eólico Talinay</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr"/>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Eólica Talinay S. A.</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14936,12 +14936,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -20140,12 +20140,12 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -20155,11 +20155,11 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20168,12 +20168,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20188,12 +20188,12 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -20203,11 +20203,11 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20216,12 +20216,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -22780,7 +22780,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22799,7 +22799,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>1950</v>
+        <v>180</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22828,7 +22828,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22847,7 +22847,7 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22876,7 +22876,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22895,7 +22895,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22909,7 +22909,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22924,7 +22924,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22943,7 +22943,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>438</v>
+        <v>2240</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22972,7 +22972,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22991,7 +22991,7 @@
         </is>
       </c>
       <c r="F472" t="n">
-        <v>2240</v>
+        <v>470</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23020,7 +23020,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23039,7 +23039,7 @@
         </is>
       </c>
       <c r="F473" t="n">
-        <v>470</v>
+        <v>1950</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12/09/2023</t>
+          <t>15/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -7816,12 +7816,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,12 +7864,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -14864,22 +14864,26 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Eólica Talinay S. A.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14888,12 +14892,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14908,26 +14912,22 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Parque Eólico Talinay</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr"/>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Eólica Talinay S. A.</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14936,12 +14936,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -20140,12 +20140,12 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -20155,11 +20155,11 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20168,12 +20168,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20188,12 +20188,12 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -20203,11 +20203,11 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20216,12 +20216,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -22780,7 +22780,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22799,7 +22799,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>1950</v>
+        <v>180</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22828,7 +22828,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22847,7 +22847,7 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22876,7 +22876,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22895,7 +22895,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22909,7 +22909,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22924,7 +22924,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22943,7 +22943,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>438</v>
+        <v>2240</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22972,7 +22972,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22991,7 +22991,7 @@
         </is>
       </c>
       <c r="F472" t="n">
-        <v>2240</v>
+        <v>470</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23020,7 +23020,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23039,7 +23039,7 @@
         </is>
       </c>
       <c r="F473" t="n">
-        <v>470</v>
+        <v>1950</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -7816,12 +7816,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,12 +7864,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10759,11 +10759,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10772,12 +10772,12 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -14864,22 +14864,26 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Eólica Talinay S. A.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14888,12 +14892,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14908,26 +14912,22 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Parque Eólico Talinay</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr"/>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Eólica Talinay S. A.</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14936,12 +14936,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -20140,12 +20140,12 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -20155,11 +20155,11 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20168,12 +20168,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20188,12 +20188,12 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -20203,11 +20203,11 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20216,12 +20216,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -22780,7 +22780,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22799,7 +22799,7 @@
         </is>
       </c>
       <c r="F468" t="n">
-        <v>1950</v>
+        <v>180</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22828,7 +22828,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22847,7 +22847,7 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22876,7 +22876,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22895,7 +22895,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22909,7 +22909,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22924,7 +22924,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22943,7 +22943,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>438</v>
+        <v>2240</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22972,7 +22972,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22991,7 +22991,7 @@
         </is>
       </c>
       <c r="F472" t="n">
-        <v>2240</v>
+        <v>470</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23020,7 +23020,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23039,7 +23039,7 @@
         </is>
       </c>
       <c r="F473" t="n">
-        <v>470</v>
+        <v>1950</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7864,12 +7864,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,12 +7912,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -14912,26 +14912,22 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Parque Eólico Talinay</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr"/>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Eólica Talinay S. A.</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14940,12 +14936,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14960,22 +14956,26 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay</t>
-        </is>
-      </c>
-      <c r="C305" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Eólica Talinay S. A.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14984,12 +14984,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -20188,12 +20188,12 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -20203,11 +20203,11 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20216,12 +20216,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20236,12 +20236,12 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -20251,11 +20251,11 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20264,12 +20264,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -22828,7 +22828,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22847,7 +22847,7 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>180</v>
+        <v>1950</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22876,7 +22876,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22895,7 +22895,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22909,7 +22909,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22924,7 +22924,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22943,7 +22943,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22972,7 +22972,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22991,7 +22991,7 @@
         </is>
       </c>
       <c r="F472" t="n">
-        <v>2240</v>
+        <v>438</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23020,7 +23020,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23039,7 +23039,7 @@
         </is>
       </c>
       <c r="F473" t="n">
-        <v>470</v>
+        <v>2240</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23068,7 +23068,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23087,7 +23087,7 @@
         </is>
       </c>
       <c r="F474" t="n">
-        <v>1950</v>
+        <v>470</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23101,7 +23101,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7864,12 +7864,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,12 +7912,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -14912,22 +14912,26 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Eólica Talinay S. A.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14936,12 +14940,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14956,26 +14960,22 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Parque Eólico Talinay</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr"/>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Eólica Talinay S. A.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14984,12 +14984,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -20188,12 +20188,12 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -20203,11 +20203,11 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20216,12 +20216,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20236,12 +20236,12 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -20251,11 +20251,11 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20264,12 +20264,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -22828,7 +22828,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22847,7 +22847,7 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>1950</v>
+        <v>180</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22876,7 +22876,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22895,7 +22895,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22909,7 +22909,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22924,7 +22924,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22943,7 +22943,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22972,7 +22972,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22991,7 +22991,7 @@
         </is>
       </c>
       <c r="F472" t="n">
-        <v>438</v>
+        <v>2240</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23020,7 +23020,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23039,7 +23039,7 @@
         </is>
       </c>
       <c r="F473" t="n">
-        <v>2240</v>
+        <v>470</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23068,7 +23068,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23087,7 +23087,7 @@
         </is>
       </c>
       <c r="F474" t="n">
-        <v>470</v>
+        <v>1950</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23101,7 +23101,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/10/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7864,12 +7864,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,12 +7912,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -14912,22 +14912,26 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Eólica Talinay S. A.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14936,12 +14940,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14956,26 +14960,22 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Parque Eólico Talinay</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr"/>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Eólica Talinay S. A.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14984,12 +14984,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -20188,12 +20188,12 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -20203,11 +20203,11 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20216,12 +20216,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20236,12 +20236,12 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -20251,11 +20251,11 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20264,12 +20264,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -22828,7 +22828,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22847,7 +22847,7 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>1950</v>
+        <v>180</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22876,7 +22876,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22895,7 +22895,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22909,7 +22909,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22924,7 +22924,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22943,7 +22943,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22972,7 +22972,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22991,7 +22991,7 @@
         </is>
       </c>
       <c r="F472" t="n">
-        <v>438</v>
+        <v>2240</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23020,7 +23020,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23039,7 +23039,7 @@
         </is>
       </c>
       <c r="F473" t="n">
-        <v>2240</v>
+        <v>470</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23068,7 +23068,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23087,7 +23087,7 @@
         </is>
       </c>
       <c r="F474" t="n">
-        <v>470</v>
+        <v>1950</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23101,7 +23101,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -1844,7 +1844,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -7864,12 +7864,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,12 +7912,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -14912,26 +14912,22 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Parque Eólico Talinay</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr"/>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Eólica Talinay S. A.</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14940,12 +14936,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14960,22 +14956,26 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay</t>
-        </is>
-      </c>
-      <c r="C305" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Eólica Talinay S. A.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14984,12 +14984,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -20188,12 +20188,12 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -20203,11 +20203,11 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20216,12 +20216,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20236,12 +20236,12 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -20251,11 +20251,11 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20264,12 +20264,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -22828,7 +22828,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22847,7 +22847,7 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>180</v>
+        <v>1950</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22876,7 +22876,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22895,7 +22895,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22909,7 +22909,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22924,7 +22924,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22943,7 +22943,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22972,7 +22972,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22991,7 +22991,7 @@
         </is>
       </c>
       <c r="F472" t="n">
-        <v>2240</v>
+        <v>438</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23020,7 +23020,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23039,7 +23039,7 @@
         </is>
       </c>
       <c r="F473" t="n">
-        <v>470</v>
+        <v>2240</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23068,7 +23068,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23087,7 +23087,7 @@
         </is>
       </c>
       <c r="F474" t="n">
-        <v>1950</v>
+        <v>470</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23101,7 +23101,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">

--- a/data/Ovalle.xlsx
+++ b/data/Ovalle.xlsx
@@ -7864,12 +7864,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay II</t>
+          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Parque Talinay Sur SpA</t>
+          <t>MINERA FLOR DE MAYO LIMITADA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1.2</v>
+        <v>300</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,12 +7912,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Modificación Planta de Reprocesamiento de Relaves Planta de Beneficio La Ventolera</t>
+          <t>Parque Eólico Talinay II</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>MINERA FLOR DE MAYO LIMITADA</t>
+          <t>Parque Talinay Sur SpA</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>300</v>
+        <v>1.2</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7541565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7545016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10820,12 +10820,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10855,11 +10855,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10868,12 +10868,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -14912,22 +14912,26 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Parque Eólico Talinay</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Eólica Talinay S. A.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14936,12 +14940,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14956,26 +14960,22 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Parque Eólico Talinay</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr"/>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Eólica Talinay S. A.</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14984,12 +14984,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3001790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -20188,12 +20188,12 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
+          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -20203,11 +20203,11 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20216,12 +20216,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20236,12 +20236,12 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Implementación de una Planta de RILES en Planta CAPL - Valle del Limarí (e-seia)</t>
+          <t>Rehabilitación de camino de acceso al parque nacional bosque Fray Jorge</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -20251,11 +20251,11 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20264,12 +20264,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=237858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -22828,7 +22828,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
+          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22847,7 +22847,7 @@
         </is>
       </c>
       <c r="F469" t="n">
-        <v>1950</v>
+        <v>180</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22876,7 +22876,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Reposición Total Escuela Básica Los Acacios G-271 Comuna de Ovalle</t>
+          <t>Reposición Escuela Básica Los Olivos G-133</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22895,7 +22895,7 @@
         </is>
       </c>
       <c r="F470" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22909,7 +22909,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22924,7 +22924,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Reposición Escuela Básica Los Olivos G-133</t>
+          <t>Contrucción Liceo Técnico Profesional e Internado</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22943,7 +22943,7 @@
         </is>
       </c>
       <c r="F471" t="n">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22957,7 +22957,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1143&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22972,7 +22972,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Contrucción Liceo Técnico Profesional e Internado</t>
+          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22991,7 +22991,7 @@
         </is>
       </c>
       <c r="F472" t="n">
-        <v>438</v>
+        <v>2240</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1144&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23020,7 +23020,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Ampliación Escuela Básica Manuel Espinoza López F-154 Comuna de Ovalle</t>
+          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23039,7 +23039,7 @@
         </is>
       </c>
       <c r="F473" t="n">
-        <v>2240</v>
+        <v>470</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1145&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23068,7 +23068,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Reposición Parcial Escuela Básica G-255 Barraza</t>
+          <t>Construcción de Liceo Técnico Profesional e Internado en la Localidad de Cerrillos de Tamaya Comuna de Ovalle</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23087,7 +23087,7 @@
         </is>
       </c>
       <c r="F474" t="n">
-        <v>470</v>
+        <v>1950</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23101,7 +23101,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
